--- a/Fundamental/project/laliga2019/defensiveactions.xlsx
+++ b/Fundamental/project/laliga2019/defensiveactions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\homework\project\laliga2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F93C8D-2B39-40B9-9449-0A5790E2AEB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C10AEF-E952-411C-B8A1-29F438E8F2A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{8D96D71C-794E-49B4-8448-563D00C22687}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8D96D71C-794E-49B4-8448-563D00C22687}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
   <si>
     <t>Tackles</t>
   </si>
@@ -60,21 +60,9 @@
     <t>TklW</t>
   </si>
   <si>
-    <t>Def 3rd</t>
-  </si>
-  <si>
-    <t>Mid 3rd</t>
-  </si>
-  <si>
-    <t>Att 3rd</t>
-  </si>
-  <si>
     <t>Att</t>
   </si>
   <si>
-    <t>Tkl%</t>
-  </si>
-  <si>
     <t>Past</t>
   </si>
   <si>
@@ -82,9 +70,6 @@
   </si>
   <si>
     <t>Succ</t>
-  </si>
-  <si>
-    <t>%</t>
   </si>
   <si>
     <t>Sh</t>
@@ -512,6 +497,13 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -521,13 +513,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -843,52 +828,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89CD86FB-DE25-4CF6-A006-093406891A04}">
-  <dimension ref="A1:X31"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A1048576"/>
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="19" t="s">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="23"/>
+      <c r="H1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="19" t="s">
+      <c r="L1" s="23"/>
+      <c r="M1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="21"/>
-    </row>
-    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="24"/>
+    </row>
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -910,67 +887,43 @@
       <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="B3" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="D3" s="2">
         <v>27</v>
@@ -984,67 +937,43 @@
       <c r="G3" s="12">
         <v>0</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="11">
         <v>1</v>
       </c>
       <c r="I3" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L3" s="12">
         <v>2</v>
       </c>
-      <c r="M3" s="12">
-        <v>50</v>
-      </c>
-      <c r="N3" s="10">
-        <v>1</v>
-      </c>
-      <c r="O3" s="11">
-        <v>5</v>
-      </c>
-      <c r="P3" s="12">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="12">
-        <v>40</v>
-      </c>
-      <c r="R3" s="12">
-        <v>5</v>
-      </c>
-      <c r="S3" s="12">
-        <v>0</v>
-      </c>
-      <c r="T3" s="10">
-        <v>0</v>
-      </c>
-      <c r="U3" s="11">
-        <v>0</v>
-      </c>
-      <c r="V3" s="12">
-        <v>0</v>
-      </c>
-      <c r="W3" s="12">
-        <v>0</v>
-      </c>
-      <c r="X3" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>25</v>
+      <c r="M3" s="11">
+        <v>0</v>
+      </c>
+      <c r="N3" s="12">
+        <v>0</v>
+      </c>
+      <c r="O3" s="12">
+        <v>0</v>
+      </c>
+      <c r="P3" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2">
         <v>32</v>
@@ -1058,67 +987,43 @@
       <c r="G4" s="12">
         <v>22</v>
       </c>
-      <c r="H4" s="12">
-        <v>21</v>
+      <c r="H4" s="11">
+        <v>14</v>
       </c>
       <c r="I4" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="J4" s="10">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K4" s="11">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="L4" s="12">
-        <v>29</v>
-      </c>
-      <c r="M4" s="12">
-        <v>48.3</v>
-      </c>
-      <c r="N4" s="10">
-        <v>15</v>
-      </c>
-      <c r="O4" s="11">
-        <v>244</v>
-      </c>
-      <c r="P4" s="12">
         <v>83</v>
       </c>
-      <c r="Q4" s="12">
-        <v>34</v>
-      </c>
-      <c r="R4" s="12">
-        <v>128</v>
-      </c>
-      <c r="S4" s="12">
-        <v>109</v>
-      </c>
-      <c r="T4" s="10">
-        <v>7</v>
-      </c>
-      <c r="U4" s="11">
+      <c r="M4" s="11">
         <v>66</v>
       </c>
-      <c r="V4" s="12">
+      <c r="N4" s="12">
         <v>26</v>
       </c>
-      <c r="W4" s="12">
+      <c r="O4" s="12">
         <v>2</v>
       </c>
-      <c r="X4" s="10">
+      <c r="P4" s="10">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
-        <v>27</v>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2">
         <v>32</v>
@@ -1132,67 +1037,43 @@
       <c r="G5" s="12">
         <v>10</v>
       </c>
-      <c r="H5" s="12">
-        <v>2</v>
+      <c r="H5" s="11">
+        <v>0</v>
       </c>
       <c r="I5" s="12">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="J5" s="10">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="K5" s="11">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="L5" s="12">
-        <v>18</v>
-      </c>
-      <c r="M5" s="12">
-        <v>0</v>
-      </c>
-      <c r="N5" s="10">
-        <v>18</v>
-      </c>
-      <c r="O5" s="11">
-        <v>287</v>
-      </c>
-      <c r="P5" s="12">
         <v>87</v>
       </c>
-      <c r="Q5" s="12">
-        <v>30.3</v>
-      </c>
-      <c r="R5" s="12">
-        <v>16</v>
-      </c>
-      <c r="S5" s="12">
-        <v>124</v>
-      </c>
-      <c r="T5" s="10">
-        <v>147</v>
-      </c>
-      <c r="U5" s="11">
+      <c r="M5" s="11">
         <v>7</v>
       </c>
-      <c r="V5" s="12">
-        <v>0</v>
-      </c>
-      <c r="W5" s="12">
-        <v>0</v>
-      </c>
-      <c r="X5" s="10">
+      <c r="N5" s="12">
+        <v>0</v>
+      </c>
+      <c r="O5" s="12">
+        <v>0</v>
+      </c>
+      <c r="P5" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>29</v>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2">
         <v>28</v>
@@ -1206,67 +1087,43 @@
       <c r="G6" s="12">
         <v>18</v>
       </c>
-      <c r="H6" s="12">
-        <v>11</v>
+      <c r="H6" s="11">
+        <v>9</v>
       </c>
       <c r="I6" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="J6" s="10">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K6" s="11">
-        <v>9</v>
+        <v>427</v>
       </c>
       <c r="L6" s="12">
-        <v>31</v>
-      </c>
-      <c r="M6" s="12">
+        <v>135</v>
+      </c>
+      <c r="M6" s="11">
         <v>29</v>
       </c>
-      <c r="N6" s="10">
-        <v>22</v>
-      </c>
-      <c r="O6" s="11">
-        <v>427</v>
-      </c>
-      <c r="P6" s="12">
-        <v>135</v>
-      </c>
-      <c r="Q6" s="12">
-        <v>31.6</v>
-      </c>
-      <c r="R6" s="12">
-        <v>71</v>
-      </c>
-      <c r="S6" s="12">
-        <v>193</v>
-      </c>
-      <c r="T6" s="10">
-        <v>163</v>
-      </c>
-      <c r="U6" s="11">
-        <v>29</v>
-      </c>
-      <c r="V6" s="12">
+      <c r="N6" s="12">
         <v>3</v>
       </c>
-      <c r="W6" s="12">
-        <v>0</v>
-      </c>
-      <c r="X6" s="10">
+      <c r="O6" s="12">
+        <v>0</v>
+      </c>
+      <c r="P6" s="10">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
-        <v>31</v>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>31</v>
@@ -1280,67 +1137,43 @@
       <c r="G7" s="12">
         <v>63</v>
       </c>
-      <c r="H7" s="12">
-        <v>24</v>
+      <c r="H7" s="11">
+        <v>32</v>
       </c>
       <c r="I7" s="12">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="J7" s="10">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="K7" s="11">
-        <v>32</v>
+        <v>491</v>
       </c>
       <c r="L7" s="12">
-        <v>63</v>
-      </c>
-      <c r="M7" s="12">
-        <v>50.8</v>
-      </c>
-      <c r="N7" s="10">
-        <v>31</v>
-      </c>
-      <c r="O7" s="11">
-        <v>491</v>
-      </c>
-      <c r="P7" s="12">
         <v>146</v>
       </c>
-      <c r="Q7" s="12">
-        <v>29.7</v>
-      </c>
-      <c r="R7" s="12">
-        <v>124</v>
-      </c>
-      <c r="S7" s="12">
-        <v>272</v>
-      </c>
-      <c r="T7" s="10">
-        <v>95</v>
-      </c>
-      <c r="U7" s="11">
+      <c r="M7" s="11">
         <v>52</v>
       </c>
-      <c r="V7" s="12">
+      <c r="N7" s="12">
         <v>5</v>
       </c>
-      <c r="W7" s="12">
-        <v>0</v>
-      </c>
-      <c r="X7" s="10">
+      <c r="O7" s="12">
+        <v>0</v>
+      </c>
+      <c r="P7" s="10">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
-        <v>33</v>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2">
         <v>24</v>
@@ -1354,67 +1187,43 @@
       <c r="G8" s="12">
         <v>37</v>
       </c>
-      <c r="H8" s="12">
-        <v>32</v>
+      <c r="H8" s="11">
+        <v>12</v>
       </c>
       <c r="I8" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="J8" s="10">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="K8" s="11">
-        <v>12</v>
+        <v>282</v>
       </c>
       <c r="L8" s="12">
+        <v>122</v>
+      </c>
+      <c r="M8" s="11">
+        <v>44</v>
+      </c>
+      <c r="N8" s="12">
+        <v>19</v>
+      </c>
+      <c r="O8" s="12">
+        <v>1</v>
+      </c>
+      <c r="P8" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="12">
-        <v>41.4</v>
-      </c>
-      <c r="N8" s="10">
-        <v>17</v>
-      </c>
-      <c r="O8" s="11">
-        <v>282</v>
-      </c>
-      <c r="P8" s="12">
-        <v>122</v>
-      </c>
-      <c r="Q8" s="12">
-        <v>43.3</v>
-      </c>
-      <c r="R8" s="12">
-        <v>145</v>
-      </c>
-      <c r="S8" s="12">
-        <v>128</v>
-      </c>
-      <c r="T8" s="10">
-        <v>9</v>
-      </c>
-      <c r="U8" s="11">
-        <v>44</v>
-      </c>
-      <c r="V8" s="12">
-        <v>19</v>
-      </c>
-      <c r="W8" s="12">
-        <v>1</v>
-      </c>
-      <c r="X8" s="10">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
-        <v>34</v>
-      </c>
       <c r="B9" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2">
         <v>27</v>
@@ -1428,67 +1237,43 @@
       <c r="G9" s="12">
         <v>19</v>
       </c>
-      <c r="H9" s="12">
-        <v>13</v>
+      <c r="H9" s="11">
+        <v>9</v>
       </c>
       <c r="I9" s="12">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="J9" s="10">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K9" s="11">
-        <v>9</v>
+        <v>237</v>
       </c>
       <c r="L9" s="12">
-        <v>24</v>
-      </c>
-      <c r="M9" s="12">
-        <v>37.5</v>
-      </c>
-      <c r="N9" s="10">
-        <v>15</v>
-      </c>
-      <c r="O9" s="11">
-        <v>237</v>
-      </c>
-      <c r="P9" s="12">
         <v>70</v>
       </c>
-      <c r="Q9" s="12">
-        <v>29.5</v>
-      </c>
-      <c r="R9" s="12">
-        <v>61</v>
-      </c>
-      <c r="S9" s="12">
-        <v>111</v>
-      </c>
-      <c r="T9" s="10">
-        <v>65</v>
-      </c>
-      <c r="U9" s="11">
+      <c r="M9" s="11">
         <v>33</v>
       </c>
-      <c r="V9" s="12">
+      <c r="N9" s="12">
         <v>4</v>
       </c>
-      <c r="W9" s="12">
-        <v>1</v>
-      </c>
-      <c r="X9" s="10">
+      <c r="O9" s="12">
+        <v>1</v>
+      </c>
+      <c r="P9" s="10">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
-        <v>36</v>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2">
         <v>30</v>
@@ -1502,67 +1287,43 @@
       <c r="G10" s="12">
         <v>14</v>
       </c>
-      <c r="H10" s="12">
-        <v>10</v>
+      <c r="H10" s="11">
+        <v>8</v>
       </c>
       <c r="I10" s="12">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="J10" s="10">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="K10" s="11">
-        <v>8</v>
+        <v>231</v>
       </c>
       <c r="L10" s="12">
-        <v>30</v>
-      </c>
-      <c r="M10" s="12">
-        <v>26.7</v>
-      </c>
-      <c r="N10" s="10">
-        <v>22</v>
-      </c>
-      <c r="O10" s="11">
-        <v>231</v>
-      </c>
-      <c r="P10" s="12">
         <v>68</v>
       </c>
-      <c r="Q10" s="12">
-        <v>29.4</v>
-      </c>
-      <c r="R10" s="12">
-        <v>89</v>
-      </c>
-      <c r="S10" s="12">
-        <v>95</v>
-      </c>
-      <c r="T10" s="10">
-        <v>47</v>
-      </c>
-      <c r="U10" s="11">
+      <c r="M10" s="11">
         <v>40</v>
       </c>
-      <c r="V10" s="12">
+      <c r="N10" s="12">
         <v>5</v>
       </c>
-      <c r="W10" s="12">
-        <v>0</v>
-      </c>
-      <c r="X10" s="10">
+      <c r="O10" s="12">
+        <v>0</v>
+      </c>
+      <c r="P10" s="10">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
-        <v>37</v>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>22</v>
@@ -1576,67 +1337,43 @@
       <c r="G11" s="12">
         <v>22</v>
       </c>
-      <c r="H11" s="12">
-        <v>10</v>
+      <c r="H11" s="11">
+        <v>5</v>
       </c>
       <c r="I11" s="12">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J11" s="10">
+        <v>14</v>
+      </c>
+      <c r="K11" s="11">
+        <v>313</v>
+      </c>
+      <c r="L11" s="12">
+        <v>97</v>
+      </c>
+      <c r="M11" s="11">
+        <v>24</v>
+      </c>
+      <c r="N11" s="12">
         <v>7</v>
       </c>
-      <c r="K11" s="11">
-        <v>5</v>
-      </c>
-      <c r="L11" s="12">
-        <v>19</v>
-      </c>
-      <c r="M11" s="12">
-        <v>26.3</v>
-      </c>
-      <c r="N11" s="10">
-        <v>14</v>
-      </c>
-      <c r="O11" s="11">
-        <v>313</v>
-      </c>
-      <c r="P11" s="12">
-        <v>97</v>
-      </c>
-      <c r="Q11" s="12">
-        <v>31</v>
-      </c>
-      <c r="R11" s="12">
-        <v>76</v>
-      </c>
-      <c r="S11" s="12">
-        <v>149</v>
-      </c>
-      <c r="T11" s="10">
-        <v>88</v>
-      </c>
-      <c r="U11" s="11">
-        <v>24</v>
-      </c>
-      <c r="V11" s="12">
-        <v>7</v>
-      </c>
-      <c r="W11" s="12">
-        <v>0</v>
-      </c>
-      <c r="X11" s="10">
+      <c r="O11" s="12">
+        <v>0</v>
+      </c>
+      <c r="P11" s="10">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
-        <v>38</v>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2">
         <v>25</v>
@@ -1650,67 +1387,43 @@
       <c r="G12" s="12">
         <v>37</v>
       </c>
-      <c r="H12" s="12">
-        <v>28</v>
+      <c r="H12" s="11">
+        <v>17</v>
       </c>
       <c r="I12" s="12">
+        <v>35</v>
+      </c>
+      <c r="J12" s="10">
         <v>18</v>
       </c>
-      <c r="J12" s="10">
-        <v>8</v>
-      </c>
       <c r="K12" s="11">
-        <v>17</v>
+        <v>295</v>
       </c>
       <c r="L12" s="12">
-        <v>35</v>
-      </c>
-      <c r="M12" s="12">
-        <v>48.6</v>
-      </c>
-      <c r="N12" s="10">
-        <v>18</v>
-      </c>
-      <c r="O12" s="11">
-        <v>295</v>
-      </c>
-      <c r="P12" s="12">
         <v>84</v>
       </c>
-      <c r="Q12" s="12">
-        <v>28.5</v>
-      </c>
-      <c r="R12" s="12">
-        <v>114</v>
-      </c>
-      <c r="S12" s="12">
-        <v>126</v>
-      </c>
-      <c r="T12" s="10">
-        <v>55</v>
-      </c>
-      <c r="U12" s="11">
+      <c r="M12" s="11">
         <v>42</v>
       </c>
-      <c r="V12" s="12">
+      <c r="N12" s="12">
         <v>4</v>
       </c>
-      <c r="W12" s="12">
-        <v>0</v>
-      </c>
-      <c r="X12" s="10">
+      <c r="O12" s="12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="10">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
-        <v>39</v>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2">
         <v>32</v>
@@ -1724,67 +1437,43 @@
       <c r="G13" s="12">
         <v>2</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="11">
         <v>0</v>
       </c>
       <c r="I13" s="12">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J13" s="10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K13" s="11">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="L13" s="12">
-        <v>8</v>
-      </c>
-      <c r="M13" s="12">
-        <v>0</v>
-      </c>
-      <c r="N13" s="10">
-        <v>8</v>
-      </c>
-      <c r="O13" s="11">
-        <v>191</v>
-      </c>
-      <c r="P13" s="12">
         <v>48</v>
       </c>
-      <c r="Q13" s="12">
-        <v>25.1</v>
-      </c>
-      <c r="R13" s="12">
-        <v>9</v>
-      </c>
-      <c r="S13" s="12">
-        <v>88</v>
-      </c>
-      <c r="T13" s="10">
-        <v>94</v>
-      </c>
-      <c r="U13" s="11">
+      <c r="M13" s="11">
         <v>13</v>
       </c>
-      <c r="V13" s="12">
-        <v>1</v>
-      </c>
-      <c r="W13" s="12">
-        <v>0</v>
-      </c>
-      <c r="X13" s="10">
+      <c r="N13" s="12">
+        <v>1</v>
+      </c>
+      <c r="O13" s="12">
+        <v>0</v>
+      </c>
+      <c r="P13" s="10">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
-        <v>40</v>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>32</v>
@@ -1798,67 +1487,43 @@
       <c r="G14" s="12">
         <v>38</v>
       </c>
-      <c r="H14" s="12">
-        <v>22</v>
+      <c r="H14" s="11">
+        <v>15</v>
       </c>
       <c r="I14" s="12">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="J14" s="10">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="K14" s="11">
-        <v>15</v>
+        <v>495</v>
       </c>
       <c r="L14" s="12">
-        <v>49</v>
-      </c>
-      <c r="M14" s="12">
-        <v>30.6</v>
-      </c>
-      <c r="N14" s="10">
-        <v>34</v>
-      </c>
-      <c r="O14" s="11">
-        <v>495</v>
-      </c>
-      <c r="P14" s="12">
         <v>152</v>
       </c>
-      <c r="Q14" s="12">
-        <v>30.7</v>
-      </c>
-      <c r="R14" s="12">
-        <v>136</v>
-      </c>
-      <c r="S14" s="12">
-        <v>236</v>
-      </c>
-      <c r="T14" s="10">
-        <v>123</v>
-      </c>
-      <c r="U14" s="11">
+      <c r="M14" s="11">
         <v>33</v>
       </c>
-      <c r="V14" s="12">
+      <c r="N14" s="12">
         <v>6</v>
       </c>
-      <c r="W14" s="12">
-        <v>0</v>
-      </c>
-      <c r="X14" s="10">
+      <c r="O14" s="12">
+        <v>0</v>
+      </c>
+      <c r="P14" s="10">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
-        <v>41</v>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>31</v>
@@ -1872,67 +1537,43 @@
       <c r="G15" s="12">
         <v>19</v>
       </c>
-      <c r="H15" s="12">
-        <v>7</v>
+      <c r="H15" s="11">
+        <v>8</v>
       </c>
       <c r="I15" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J15" s="10">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="K15" s="11">
-        <v>8</v>
+        <v>293</v>
       </c>
       <c r="L15" s="12">
-        <v>24</v>
-      </c>
-      <c r="M15" s="12">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="N15" s="10">
-        <v>16</v>
-      </c>
-      <c r="O15" s="11">
-        <v>293</v>
-      </c>
-      <c r="P15" s="12">
         <v>96</v>
       </c>
-      <c r="Q15" s="12">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="R15" s="12">
-        <v>59</v>
-      </c>
-      <c r="S15" s="12">
-        <v>149</v>
-      </c>
-      <c r="T15" s="10">
-        <v>85</v>
-      </c>
-      <c r="U15" s="11">
+      <c r="M15" s="11">
         <v>27</v>
       </c>
-      <c r="V15" s="12">
+      <c r="N15" s="12">
         <v>5</v>
       </c>
-      <c r="W15" s="12">
-        <v>0</v>
-      </c>
-      <c r="X15" s="10">
+      <c r="O15" s="12">
+        <v>0</v>
+      </c>
+      <c r="P15" s="10">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
-        <v>42</v>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>22</v>
@@ -1946,67 +1587,43 @@
       <c r="G16" s="12">
         <v>13</v>
       </c>
-      <c r="H16" s="12">
-        <v>8</v>
+      <c r="H16" s="11">
+        <v>3</v>
       </c>
       <c r="I16" s="12">
+        <v>9</v>
+      </c>
+      <c r="J16" s="10">
         <v>6</v>
       </c>
-      <c r="J16" s="10">
-        <v>3</v>
-      </c>
       <c r="K16" s="11">
-        <v>3</v>
+        <v>188</v>
       </c>
       <c r="L16" s="12">
-        <v>9</v>
-      </c>
-      <c r="M16" s="12">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="N16" s="10">
-        <v>6</v>
-      </c>
-      <c r="O16" s="11">
-        <v>188</v>
-      </c>
-      <c r="P16" s="12">
         <v>53</v>
       </c>
-      <c r="Q16" s="12">
-        <v>28.2</v>
-      </c>
-      <c r="R16" s="12">
-        <v>36</v>
-      </c>
-      <c r="S16" s="12">
-        <v>98</v>
-      </c>
-      <c r="T16" s="10">
-        <v>54</v>
-      </c>
-      <c r="U16" s="11">
+      <c r="M16" s="11">
         <v>10</v>
       </c>
-      <c r="V16" s="12">
-        <v>0</v>
-      </c>
-      <c r="W16" s="12">
-        <v>0</v>
-      </c>
-      <c r="X16" s="10">
+      <c r="N16" s="12">
+        <v>0</v>
+      </c>
+      <c r="O16" s="12">
+        <v>0</v>
+      </c>
+      <c r="P16" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
-        <v>43</v>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D17" s="2">
         <v>16</v>
@@ -2020,67 +1637,43 @@
       <c r="G17" s="12">
         <v>10</v>
       </c>
-      <c r="H17" s="12">
-        <v>4</v>
+      <c r="H17" s="11">
+        <v>6</v>
       </c>
       <c r="I17" s="12">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J17" s="10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K17" s="11">
-        <v>6</v>
+        <v>224</v>
       </c>
       <c r="L17" s="12">
+        <v>68</v>
+      </c>
+      <c r="M17" s="11">
         <v>16</v>
       </c>
-      <c r="M17" s="12">
-        <v>37.5</v>
-      </c>
-      <c r="N17" s="10">
-        <v>10</v>
-      </c>
-      <c r="O17" s="11">
-        <v>224</v>
-      </c>
-      <c r="P17" s="12">
-        <v>68</v>
-      </c>
-      <c r="Q17" s="12">
-        <v>30.4</v>
-      </c>
-      <c r="R17" s="12">
-        <v>39</v>
-      </c>
-      <c r="S17" s="12">
-        <v>95</v>
-      </c>
-      <c r="T17" s="10">
-        <v>90</v>
-      </c>
-      <c r="U17" s="11">
-        <v>16</v>
-      </c>
-      <c r="V17" s="12">
-        <v>1</v>
-      </c>
-      <c r="W17" s="12">
-        <v>0</v>
-      </c>
-      <c r="X17" s="10">
+      <c r="N17" s="12">
+        <v>1</v>
+      </c>
+      <c r="O17" s="12">
+        <v>0</v>
+      </c>
+      <c r="P17" s="10">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
-        <v>45</v>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D18" s="2">
         <v>22</v>
@@ -2094,67 +1687,43 @@
       <c r="G18" s="12">
         <v>14</v>
       </c>
-      <c r="H18" s="12">
-        <v>14</v>
+      <c r="H18" s="11">
+        <v>13</v>
       </c>
       <c r="I18" s="12">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="J18" s="10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K18" s="11">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="L18" s="12">
+        <v>30</v>
+      </c>
+      <c r="M18" s="11">
+        <v>26</v>
+      </c>
+      <c r="N18" s="12">
+        <v>2</v>
+      </c>
+      <c r="O18" s="12">
+        <v>0</v>
+      </c>
+      <c r="P18" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="M18" s="12">
-        <v>61.9</v>
-      </c>
-      <c r="N18" s="10">
-        <v>8</v>
-      </c>
-      <c r="O18" s="11">
-        <v>124</v>
-      </c>
-      <c r="P18" s="12">
-        <v>30</v>
-      </c>
-      <c r="Q18" s="12">
-        <v>24.2</v>
-      </c>
-      <c r="R18" s="12">
-        <v>42</v>
-      </c>
-      <c r="S18" s="12">
-        <v>57</v>
-      </c>
-      <c r="T18" s="10">
-        <v>25</v>
-      </c>
-      <c r="U18" s="11">
-        <v>26</v>
-      </c>
-      <c r="V18" s="12">
-        <v>2</v>
-      </c>
-      <c r="W18" s="12">
-        <v>0</v>
-      </c>
-      <c r="X18" s="10">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D19" s="2">
         <v>25</v>
@@ -2168,67 +1737,43 @@
       <c r="G19" s="12">
         <v>9</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="11">
         <v>5</v>
       </c>
       <c r="I19" s="12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J19" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K19" s="11">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="L19" s="12">
-        <v>10</v>
-      </c>
-      <c r="M19" s="12">
-        <v>50</v>
-      </c>
-      <c r="N19" s="10">
-        <v>5</v>
-      </c>
-      <c r="O19" s="11">
-        <v>95</v>
-      </c>
-      <c r="P19" s="12">
         <v>41</v>
       </c>
-      <c r="Q19" s="12">
-        <v>43.2</v>
-      </c>
-      <c r="R19" s="12">
-        <v>35</v>
-      </c>
-      <c r="S19" s="12">
-        <v>57</v>
-      </c>
-      <c r="T19" s="10">
+      <c r="M19" s="11">
         <v>3</v>
       </c>
-      <c r="U19" s="11">
-        <v>3</v>
-      </c>
-      <c r="V19" s="12">
-        <v>1</v>
-      </c>
-      <c r="W19" s="12">
-        <v>0</v>
-      </c>
-      <c r="X19" s="10">
+      <c r="N19" s="12">
+        <v>1</v>
+      </c>
+      <c r="O19" s="12">
+        <v>0</v>
+      </c>
+      <c r="P19" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
-        <v>47</v>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>19</v>
@@ -2242,67 +1787,43 @@
       <c r="G20" s="12">
         <v>6</v>
       </c>
-      <c r="H20" s="12">
-        <v>1</v>
+      <c r="H20" s="11">
+        <v>3</v>
       </c>
       <c r="I20" s="12">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J20" s="10">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="K20" s="11">
-        <v>3</v>
+        <v>148</v>
       </c>
       <c r="L20" s="12">
-        <v>18</v>
-      </c>
-      <c r="M20" s="12">
-        <v>16.7</v>
-      </c>
-      <c r="N20" s="10">
-        <v>15</v>
-      </c>
-      <c r="O20" s="11">
-        <v>148</v>
-      </c>
-      <c r="P20" s="12">
         <v>30</v>
       </c>
-      <c r="Q20" s="12">
-        <v>20.3</v>
-      </c>
-      <c r="R20" s="12">
-        <v>23</v>
-      </c>
-      <c r="S20" s="12">
-        <v>94</v>
-      </c>
-      <c r="T20" s="10">
-        <v>31</v>
-      </c>
-      <c r="U20" s="11">
+      <c r="M20" s="11">
         <v>5</v>
       </c>
-      <c r="V20" s="12">
-        <v>0</v>
-      </c>
-      <c r="W20" s="12">
-        <v>0</v>
-      </c>
-      <c r="X20" s="10">
+      <c r="N20" s="12">
+        <v>0</v>
+      </c>
+      <c r="O20" s="12">
+        <v>0</v>
+      </c>
+      <c r="P20" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
-        <v>48</v>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D21" s="2">
         <v>21</v>
@@ -2316,67 +1837,43 @@
       <c r="G21" s="12">
         <v>3</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="11">
+        <v>0</v>
+      </c>
+      <c r="I21" s="12">
+        <v>8</v>
+      </c>
+      <c r="J21" s="10">
+        <v>8</v>
+      </c>
+      <c r="K21" s="11">
+        <v>75</v>
+      </c>
+      <c r="L21" s="12">
+        <v>24</v>
+      </c>
+      <c r="M21" s="11">
+        <v>4</v>
+      </c>
+      <c r="N21" s="12">
+        <v>1</v>
+      </c>
+      <c r="O21" s="12">
+        <v>0</v>
+      </c>
+      <c r="P21" s="10">
         <v>3</v>
       </c>
-      <c r="I21" s="12">
-        <v>0</v>
-      </c>
-      <c r="J21" s="10">
-        <v>2</v>
-      </c>
-      <c r="K21" s="11">
-        <v>0</v>
-      </c>
-      <c r="L21" s="12">
-        <v>8</v>
-      </c>
-      <c r="M21" s="12">
-        <v>0</v>
-      </c>
-      <c r="N21" s="10">
-        <v>8</v>
-      </c>
-      <c r="O21" s="11">
-        <v>75</v>
-      </c>
-      <c r="P21" s="12">
-        <v>24</v>
-      </c>
-      <c r="Q21" s="12">
-        <v>32</v>
-      </c>
-      <c r="R21" s="12">
-        <v>8</v>
-      </c>
-      <c r="S21" s="12">
-        <v>38</v>
-      </c>
-      <c r="T21" s="10">
-        <v>29</v>
-      </c>
-      <c r="U21" s="11">
-        <v>4</v>
-      </c>
-      <c r="V21" s="12">
-        <v>1</v>
-      </c>
-      <c r="W21" s="12">
-        <v>0</v>
-      </c>
-      <c r="X21" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
-        <v>49</v>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="19" t="s">
+        <v>44</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D22" s="2">
         <v>28</v>
@@ -2390,67 +1887,43 @@
       <c r="G22" s="12">
         <v>1</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="11">
+        <v>0</v>
+      </c>
+      <c r="I22" s="12">
         <v>2</v>
       </c>
-      <c r="I22" s="12">
-        <v>1</v>
-      </c>
       <c r="J22" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K22" s="11">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L22" s="12">
-        <v>2</v>
-      </c>
-      <c r="M22" s="12">
-        <v>0</v>
-      </c>
-      <c r="N22" s="10">
-        <v>2</v>
-      </c>
-      <c r="O22" s="11">
+        <v>15</v>
+      </c>
+      <c r="M22" s="11">
+        <v>1</v>
+      </c>
+      <c r="N22" s="12">
+        <v>0</v>
+      </c>
+      <c r="O22" s="12">
+        <v>0</v>
+      </c>
+      <c r="P22" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="P22" s="12">
-        <v>15</v>
-      </c>
-      <c r="Q22" s="12">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="R22" s="12">
-        <v>6</v>
-      </c>
-      <c r="S22" s="12">
-        <v>15</v>
-      </c>
-      <c r="T22" s="10">
-        <v>24</v>
-      </c>
-      <c r="U22" s="11">
-        <v>1</v>
-      </c>
-      <c r="V22" s="12">
-        <v>0</v>
-      </c>
-      <c r="W22" s="12">
-        <v>0</v>
-      </c>
-      <c r="X22" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
-        <v>50</v>
-      </c>
       <c r="B23" s="17" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2">
         <v>22</v>
@@ -2464,67 +1937,43 @@
       <c r="G23" s="12">
         <v>0</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="11">
         <v>0</v>
       </c>
       <c r="I23" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K23" s="11">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="L23" s="12">
-        <v>3</v>
-      </c>
-      <c r="M23" s="12">
-        <v>0</v>
-      </c>
-      <c r="N23" s="10">
-        <v>3</v>
-      </c>
-      <c r="O23" s="11">
-        <v>58</v>
-      </c>
-      <c r="P23" s="12">
         <v>10</v>
       </c>
-      <c r="Q23" s="12">
-        <v>17.2</v>
-      </c>
-      <c r="R23" s="12">
-        <v>9</v>
-      </c>
-      <c r="S23" s="12">
-        <v>31</v>
-      </c>
-      <c r="T23" s="10">
-        <v>18</v>
-      </c>
-      <c r="U23" s="11">
+      <c r="M23" s="11">
         <v>4</v>
       </c>
-      <c r="V23" s="12">
-        <v>0</v>
-      </c>
-      <c r="W23" s="12">
-        <v>0</v>
-      </c>
-      <c r="X23" s="10">
+      <c r="N23" s="12">
+        <v>0</v>
+      </c>
+      <c r="O23" s="12">
+        <v>0</v>
+      </c>
+      <c r="P23" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
-        <v>51</v>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D24" s="2">
         <v>20</v>
@@ -2538,67 +1987,43 @@
       <c r="G24" s="12">
         <v>2</v>
       </c>
-      <c r="H24" s="12">
-        <v>2</v>
+      <c r="H24" s="11">
+        <v>3</v>
       </c>
       <c r="I24" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J24" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="11">
+        <v>26</v>
+      </c>
+      <c r="L24" s="12">
+        <v>8</v>
+      </c>
+      <c r="M24" s="11">
+        <v>9</v>
+      </c>
+      <c r="N24" s="12">
         <v>3</v>
       </c>
-      <c r="L24" s="12">
-        <v>4</v>
-      </c>
-      <c r="M24" s="12">
-        <v>75</v>
-      </c>
-      <c r="N24" s="10">
-        <v>1</v>
-      </c>
-      <c r="O24" s="11">
-        <v>26</v>
-      </c>
-      <c r="P24" s="12">
-        <v>8</v>
-      </c>
-      <c r="Q24" s="12">
-        <v>30.8</v>
-      </c>
-      <c r="R24" s="12">
-        <v>18</v>
-      </c>
-      <c r="S24" s="12">
-        <v>8</v>
-      </c>
-      <c r="T24" s="10">
-        <v>0</v>
-      </c>
-      <c r="U24" s="11">
-        <v>9</v>
-      </c>
-      <c r="V24" s="12">
-        <v>3</v>
-      </c>
-      <c r="W24" s="12">
-        <v>0</v>
-      </c>
-      <c r="X24" s="10">
+      <c r="O24" s="12">
+        <v>0</v>
+      </c>
+      <c r="P24" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
-        <v>52</v>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D25" s="2">
         <v>26</v>
@@ -2612,8 +2037,8 @@
       <c r="G25" s="12">
         <v>3</v>
       </c>
-      <c r="H25" s="12">
-        <v>1</v>
+      <c r="H25" s="11">
+        <v>0</v>
       </c>
       <c r="I25" s="12">
         <v>1</v>
@@ -2622,57 +2047,33 @@
         <v>1</v>
       </c>
       <c r="K25" s="11">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L25" s="12">
-        <v>1</v>
-      </c>
-      <c r="M25" s="12">
-        <v>0</v>
-      </c>
-      <c r="N25" s="10">
-        <v>1</v>
-      </c>
-      <c r="O25" s="11">
-        <v>14</v>
-      </c>
-      <c r="P25" s="12">
         <v>5</v>
       </c>
-      <c r="Q25" s="12">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="R25" s="12">
-        <v>2</v>
-      </c>
-      <c r="S25" s="12">
-        <v>5</v>
-      </c>
-      <c r="T25" s="10">
-        <v>7</v>
-      </c>
-      <c r="U25" s="11">
-        <v>1</v>
-      </c>
-      <c r="V25" s="12">
-        <v>0</v>
-      </c>
-      <c r="W25" s="12">
-        <v>0</v>
-      </c>
-      <c r="X25" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
-        <v>53</v>
+      <c r="M25" s="11">
+        <v>1</v>
+      </c>
+      <c r="N25" s="12">
+        <v>0</v>
+      </c>
+      <c r="O25" s="12">
+        <v>0</v>
+      </c>
+      <c r="P25" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D26" s="2">
         <v>30</v>
@@ -2686,7 +2087,7 @@
       <c r="G26" s="12">
         <v>0</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="11">
         <v>0</v>
       </c>
       <c r="I26" s="12">
@@ -2701,48 +2102,28 @@
       <c r="L26" s="12">
         <v>0</v>
       </c>
-      <c r="M26" s="12"/>
-      <c r="N26" s="10">
-        <v>0</v>
-      </c>
-      <c r="O26" s="11">
-        <v>0</v>
-      </c>
-      <c r="P26" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12">
-        <v>0</v>
-      </c>
-      <c r="S26" s="12">
-        <v>0</v>
-      </c>
-      <c r="T26" s="10">
-        <v>0</v>
-      </c>
-      <c r="U26" s="11">
-        <v>0</v>
-      </c>
-      <c r="V26" s="12">
-        <v>0</v>
-      </c>
-      <c r="W26" s="12">
-        <v>0</v>
-      </c>
-      <c r="X26" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
-        <v>54</v>
+      <c r="M26" s="11">
+        <v>0</v>
+      </c>
+      <c r="N26" s="12">
+        <v>0</v>
+      </c>
+      <c r="O26" s="12">
+        <v>0</v>
+      </c>
+      <c r="P26" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
         <v>21</v>
@@ -2756,67 +2137,43 @@
       <c r="G27" s="12">
         <v>1</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="11">
         <v>1</v>
       </c>
       <c r="I27" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J27" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K27" s="11">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="L27" s="12">
-        <v>5</v>
-      </c>
-      <c r="M27" s="12">
-        <v>20</v>
-      </c>
-      <c r="N27" s="10">
-        <v>4</v>
-      </c>
-      <c r="O27" s="11">
-        <v>38</v>
-      </c>
-      <c r="P27" s="12">
         <v>6</v>
       </c>
-      <c r="Q27" s="12">
-        <v>15.8</v>
-      </c>
-      <c r="R27" s="12">
-        <v>10</v>
-      </c>
-      <c r="S27" s="12">
+      <c r="M27" s="11">
+        <v>2</v>
+      </c>
+      <c r="N27" s="12">
+        <v>0</v>
+      </c>
+      <c r="O27" s="12">
+        <v>0</v>
+      </c>
+      <c r="P27" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="T27" s="10">
-        <v>7</v>
-      </c>
-      <c r="U27" s="11">
-        <v>2</v>
-      </c>
-      <c r="V27" s="12">
-        <v>0</v>
-      </c>
-      <c r="W27" s="12">
-        <v>0</v>
-      </c>
-      <c r="X27" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A28" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D28" s="2">
         <v>20</v>
@@ -2830,67 +2187,43 @@
       <c r="G28" s="12">
         <v>3</v>
       </c>
-      <c r="H28" s="12">
-        <v>1</v>
+      <c r="H28" s="11">
+        <v>2</v>
       </c>
       <c r="I28" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J28" s="10">
         <v>1</v>
       </c>
       <c r="K28" s="11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L28" s="12">
         <v>3</v>
       </c>
-      <c r="M28" s="12">
-        <v>66.7</v>
-      </c>
-      <c r="N28" s="10">
-        <v>1</v>
-      </c>
-      <c r="O28" s="11">
-        <v>8</v>
-      </c>
-      <c r="P28" s="12">
-        <v>3</v>
-      </c>
-      <c r="Q28" s="12">
-        <v>37.5</v>
-      </c>
-      <c r="R28" s="12">
-        <v>3</v>
-      </c>
-      <c r="S28" s="12">
-        <v>3</v>
-      </c>
-      <c r="T28" s="10">
-        <v>2</v>
-      </c>
-      <c r="U28" s="11">
-        <v>0</v>
-      </c>
-      <c r="V28" s="12">
-        <v>0</v>
-      </c>
-      <c r="W28" s="12">
-        <v>0</v>
-      </c>
-      <c r="X28" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A29" s="22" t="s">
-        <v>56</v>
+      <c r="M28" s="11">
+        <v>0</v>
+      </c>
+      <c r="N28" s="12">
+        <v>0</v>
+      </c>
+      <c r="O28" s="12">
+        <v>0</v>
+      </c>
+      <c r="P28" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D29" s="2">
         <v>19</v>
@@ -2904,67 +2237,43 @@
       <c r="G29" s="12">
         <v>1</v>
       </c>
-      <c r="H29" s="12">
-        <v>1</v>
+      <c r="H29" s="11">
+        <v>0</v>
       </c>
       <c r="I29" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L29" s="12">
-        <v>1</v>
-      </c>
-      <c r="M29" s="12">
-        <v>0</v>
-      </c>
-      <c r="N29" s="10">
-        <v>1</v>
-      </c>
-      <c r="O29" s="11">
-        <v>7</v>
-      </c>
-      <c r="P29" s="12">
         <v>3</v>
       </c>
-      <c r="Q29" s="12">
-        <v>42.9</v>
-      </c>
-      <c r="R29" s="12">
-        <v>4</v>
-      </c>
-      <c r="S29" s="12">
+      <c r="M29" s="11">
         <v>3</v>
       </c>
-      <c r="T29" s="10">
-        <v>0</v>
-      </c>
-      <c r="U29" s="11">
+      <c r="N29" s="12">
+        <v>0</v>
+      </c>
+      <c r="O29" s="12">
+        <v>0</v>
+      </c>
+      <c r="P29" s="10">
         <v>3</v>
       </c>
-      <c r="V29" s="12">
-        <v>0</v>
-      </c>
-      <c r="W29" s="12">
-        <v>0</v>
-      </c>
-      <c r="X29" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="23" t="s">
-        <v>57</v>
+    </row>
+    <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D30" s="3">
         <v>20</v>
@@ -2978,7 +2287,7 @@
       <c r="G30" s="15">
         <v>0</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="14">
         <v>0</v>
       </c>
       <c r="I30" s="15">
@@ -2988,49 +2297,27 @@
         <v>0</v>
       </c>
       <c r="K30" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L30" s="15">
-        <v>0</v>
-      </c>
-      <c r="M30" s="15"/>
-      <c r="N30" s="13">
-        <v>0</v>
-      </c>
-      <c r="O30" s="14">
         <v>2</v>
       </c>
-      <c r="P30" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q30" s="15">
-        <v>100</v>
-      </c>
-      <c r="R30" s="15">
-        <v>0</v>
-      </c>
-      <c r="S30" s="15">
-        <v>0</v>
-      </c>
-      <c r="T30" s="13">
-        <v>2</v>
-      </c>
-      <c r="U30" s="14">
-        <v>0</v>
-      </c>
-      <c r="V30" s="15">
-        <v>0</v>
-      </c>
-      <c r="W30" s="15">
-        <v>0</v>
-      </c>
-      <c r="X30" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M30" s="14">
+        <v>0</v>
+      </c>
+      <c r="N30" s="15">
+        <v>0</v>
+      </c>
+      <c r="O30" s="15">
+        <v>0</v>
+      </c>
+      <c r="P30" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
@@ -3044,64 +2331,40 @@
       <c r="G31" s="8">
         <v>367</v>
       </c>
-      <c r="H31" s="8">
-        <v>224</v>
+      <c r="H31" s="7">
+        <v>166</v>
       </c>
       <c r="I31" s="8">
-        <v>228</v>
+        <v>462</v>
       </c>
       <c r="J31" s="16">
-        <v>92</v>
+        <v>296</v>
       </c>
       <c r="K31" s="7">
-        <v>166</v>
+        <v>4843</v>
       </c>
       <c r="L31" s="8">
-        <v>462</v>
-      </c>
-      <c r="M31" s="8">
-        <v>35.9</v>
-      </c>
-      <c r="N31" s="16">
-        <v>296</v>
-      </c>
-      <c r="O31" s="7">
-        <v>4843</v>
-      </c>
-      <c r="P31" s="8">
         <v>1488</v>
       </c>
-      <c r="Q31" s="8">
-        <v>30.7</v>
-      </c>
-      <c r="R31" s="8">
-        <v>1268</v>
-      </c>
-      <c r="S31" s="8">
-        <v>2305</v>
-      </c>
-      <c r="T31" s="16">
-        <v>1270</v>
-      </c>
-      <c r="U31" s="7">
+      <c r="M31" s="7">
         <v>494</v>
       </c>
-      <c r="V31" s="8">
+      <c r="N31" s="8">
         <v>93</v>
       </c>
-      <c r="W31" s="8">
+      <c r="O31" s="8">
         <v>4</v>
       </c>
-      <c r="X31" s="16">
+      <c r="P31" s="16">
         <v>401</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <hyperlinks>
